--- a/IP_calculation_Pro/equipment_database.xlsx
+++ b/IP_calculation_Pro/equipment_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\PycharmProjects\first_public_project\IP_calculation_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161CCBB-B88D-49FD-9AE7-C795B969228D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C75C93-ED72-4E75-855F-53157AA0670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>equipment_name</t>
   </si>
@@ -90,29 +90,68 @@
     <t>без трубы</t>
   </si>
   <si>
-    <t>10.8.10.0</t>
+    <t>10.6.39.255</t>
+  </si>
+  <si>
+    <t>10.5.29.255</t>
+  </si>
+  <si>
+    <t>10.6.20.1</t>
+  </si>
+  <si>
+    <t>10.5.20.1</t>
+  </si>
+  <si>
+    <t>10.8.10.1</t>
+  </si>
+  <si>
+    <t>10.8.180.1</t>
   </si>
   <si>
     <t>10.8.19.255</t>
   </si>
   <si>
-    <t>10.6.20.0</t>
-  </si>
-  <si>
-    <t>10.6.39.255</t>
-  </si>
-  <si>
-    <t>10.5.20.0</t>
-  </si>
-  <si>
-    <t>10.5.29.255</t>
+    <t>10.8.199.255</t>
+  </si>
+  <si>
+    <t>10.8.95.1</t>
+  </si>
+  <si>
+    <t>10.8.127.1</t>
+  </si>
+  <si>
+    <t>10.7.10.1</t>
+  </si>
+  <si>
+    <t>10.8.99.255</t>
+  </si>
+  <si>
+    <t>10.8.129.255</t>
+  </si>
+  <si>
+    <t>10.7.10.255</t>
+  </si>
+  <si>
+    <t>Дом Кота Леопольда</t>
+  </si>
+  <si>
+    <t>с мышами</t>
+  </si>
+  <si>
+    <t>без мышей</t>
+  </si>
+  <si>
+    <t>10.5.30.1</t>
+  </si>
+  <si>
+    <t>10.5.31.255</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +165,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,20 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -495,14 +540,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f>255*10</f>
-        <v>2550</v>
+        <v>2559</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -512,6 +556,18 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -520,6 +576,18 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4">
+        <v>1001</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -528,6 +596,18 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5">
+        <v>2001</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -536,6 +616,18 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1279</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -544,6 +636,18 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>767</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -552,6 +656,18 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -564,13 +680,13 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2550</v>
+        <v>2559</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -581,17 +697,16 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>2551</v>
+        <v>2560</v>
       </c>
       <c r="D10">
-        <f>2550*2</f>
-        <v>5100</v>
+        <v>5119</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -603,20 +718,60 @@
       </c>
       <c r="C11">
         <f>D10+1</f>
-        <v>5101</v>
+        <v>5120</v>
       </c>
       <c r="D11">
-        <f>D10+2550</f>
-        <v>7650</v>
+        <v>7659</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>256</v>
+      </c>
+      <c r="D13">
+        <v>511</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IP_calculation_Pro/equipment_database.xlsx
+++ b/IP_calculation_Pro/equipment_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\PycharmProjects\first_public_project\IP_calculation_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C75C93-ED72-4E75-855F-53157AA0670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2830B21-563E-47E0-9D82-82B488C22BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +560,8 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <f>256*19+255</f>
+        <v>5119</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -577,10 +578,11 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <f t="shared" ref="D4:D5" si="0">256*19+255</f>
+        <v>5119</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -597,10 +599,11 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>2001</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>5119</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -680,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2559</v>
+        <v>5119</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -697,7 +700,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>2560</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>5119</v>
@@ -741,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>255</v>
+        <v>511</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -758,7 +761,7 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>511</v>

--- a/IP_calculation_Pro/equipment_database.xlsx
+++ b/IP_calculation_Pro/equipment_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\PycharmProjects\first_public_project\IP_calculation_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2830B21-563E-47E0-9D82-82B488C22BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2F8B4B-D7A0-41F1-96AB-14892CB02F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3564" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>10.8.10.1</t>
   </si>
   <si>
-    <t>10.8.180.1</t>
-  </si>
-  <si>
     <t>10.8.19.255</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>10.5.31.255</t>
+  </si>
+  <si>
+    <t>10.8.160.1</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -560,14 +560,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f>256*19+255</f>
-        <v>5119</v>
+        <v>10239</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -581,14 +580,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="0">256*19+255</f>
-        <v>5119</v>
+        <v>10239</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -602,14 +600,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>5119</v>
+        <v>10239</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -626,10 +623,10 @@
         <v>1279</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -646,10 +643,10 @@
         <v>767</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -666,10 +663,10 @@
         <v>255</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -735,10 +732,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -747,18 +744,18 @@
         <v>511</v>
       </c>
       <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -767,10 +764,10 @@
         <v>511</v>
       </c>
       <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/IP_calculation_Pro/equipment_database.xlsx
+++ b/IP_calculation_Pro/equipment_database.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\PycharmProjects\first_public_project\IP_calculation_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2F8B4B-D7A0-41F1-96AB-14892CB02F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C874CE-BECD-4CBE-82C6-1BD7C33B74CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>equipment_name</t>
   </si>
@@ -33,16 +28,19 @@
     <t>equipment_type</t>
   </si>
   <si>
+    <t>first_serial_number</t>
+  </si>
+  <si>
     <t>last_serial_number</t>
   </si>
   <si>
+    <t>first_IP</t>
+  </si>
+  <si>
     <t>last_IP</t>
   </si>
   <si>
-    <t>first_serial_number</t>
-  </si>
-  <si>
-    <t>first_IP</t>
+    <t>ab_label</t>
   </si>
   <si>
     <t>Коммутатор</t>
@@ -51,12 +49,27 @@
     <t>ПРГС.465000.028</t>
   </si>
   <si>
+    <t>10.8.10.1</t>
+  </si>
+  <si>
+    <t>10.8.19.255</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Блок управления камерами</t>
   </si>
   <si>
     <t>ТТСК.465000.180</t>
   </si>
   <si>
+    <t>10.8.160.1</t>
+  </si>
+  <si>
+    <t>10.8.199.255</t>
+  </si>
+  <si>
     <t>ТТСК.465000.181</t>
   </si>
   <si>
@@ -69,89 +82,98 @@
     <t>ПРГС.465000.012</t>
   </si>
   <si>
+    <t>10.8.95.1</t>
+  </si>
+  <si>
+    <t>10.8.99.255</t>
+  </si>
+  <si>
     <t>Видеорегистратор</t>
   </si>
   <si>
     <t>ТТСК.465000.125</t>
   </si>
   <si>
+    <t>10.8.127.1</t>
+  </si>
+  <si>
+    <t>10.8.129.255</t>
+  </si>
+  <si>
     <t>Медиамонитор</t>
   </si>
   <si>
     <t>ПРГС.465000.024</t>
   </si>
   <si>
+    <t>10.7.10.1</t>
+  </si>
+  <si>
+    <t>10.7.10.255</t>
+  </si>
+  <si>
     <t>Домик для Мышки Норушки</t>
   </si>
   <si>
     <t>с трубой</t>
   </si>
   <si>
+    <t>10.6.20.1</t>
+  </si>
+  <si>
+    <t>10.6.39.255</t>
+  </si>
+  <si>
     <t>без трубы</t>
   </si>
   <si>
-    <t>10.6.39.255</t>
+    <t>10.5.20.1</t>
   </si>
   <si>
     <t>10.5.29.255</t>
   </si>
   <si>
-    <t>10.6.20.1</t>
-  </si>
-  <si>
-    <t>10.5.20.1</t>
-  </si>
-  <si>
-    <t>10.8.10.1</t>
-  </si>
-  <si>
-    <t>10.8.19.255</t>
-  </si>
-  <si>
-    <t>10.8.199.255</t>
-  </si>
-  <si>
-    <t>10.8.95.1</t>
-  </si>
-  <si>
-    <t>10.8.127.1</t>
-  </si>
-  <si>
-    <t>10.7.10.1</t>
-  </si>
-  <si>
-    <t>10.8.99.255</t>
-  </si>
-  <si>
-    <t>10.8.129.255</t>
-  </si>
-  <si>
-    <t>10.7.10.255</t>
-  </si>
-  <si>
     <t>Дом Кота Леопольда</t>
   </si>
   <si>
     <t>с мышами</t>
   </si>
   <si>
+    <t>10.5.30.1</t>
+  </si>
+  <si>
+    <t>10.5.31.255</t>
+  </si>
+  <si>
     <t>без мышей</t>
   </si>
   <si>
-    <t>10.5.30.1</t>
-  </si>
-  <si>
-    <t>10.5.31.255</t>
-  </si>
-  <si>
-    <t>10.8.160.1</t>
+    <t>Кормушка</t>
+  </si>
+  <si>
+    <t>для зяблика</t>
+  </si>
+  <si>
+    <t>10.8.23.1</t>
+  </si>
+  <si>
+    <t>10.8.23.255</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>10.7.22.1</t>
+  </si>
+  <si>
+    <t>10.7.22.255</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,14 +185,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,7 +232,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -241,44 +255,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -305,15 +319,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -340,7 +353,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -352,151 +364,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,9 +543,10 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,24 +554,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -543,18 +583,21 @@
         <v>2559</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -563,18 +606,21 @@
         <v>10239</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -583,18 +629,21 @@
         <v>10239</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -603,18 +652,21 @@
         <v>10239</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -623,18 +675,21 @@
         <v>1279</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -643,18 +698,21 @@
         <v>767</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -663,18 +721,21 @@
         <v>255</v>
       </c>
       <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -683,18 +744,21 @@
         <v>5119</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -703,39 +767,44 @@
         <v>5119</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <f>D10+1</f>
         <v>5120</v>
       </c>
       <c r="D11">
         <v>7659</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -744,18 +813,21 @@
         <v>511</v>
       </c>
       <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -764,14 +836,62 @@
         <v>511</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>255</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>256</v>
+      </c>
+      <c r="D15">
+        <v>510</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/IP_calculation_Pro/equipment_database.xlsx
+++ b/IP_calculation_Pro/equipment_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\PycharmProjects\first_public_project\IP_calculation_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C874CE-BECD-4CBE-82C6-1BD7C33B74CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A6BC47-38E6-483B-9AE3-7BCA8A91E8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>equipment_name</t>
   </si>
@@ -145,6 +145,9 @@
     <t>10.5.31.255</t>
   </si>
   <si>
+    <t>close</t>
+  </si>
+  <si>
     <t>без мышей</t>
   </si>
   <si>
@@ -160,13 +163,16 @@
     <t>10.8.23.255</t>
   </si>
   <si>
-    <t>close</t>
-  </si>
-  <si>
     <t>10.7.22.1</t>
   </si>
   <si>
     <t>10.7.22.255</t>
+  </si>
+  <si>
+    <t>23.5.11.1</t>
+  </si>
+  <si>
+    <t>23.5.11.255</t>
   </si>
 </sst>
 </file>
@@ -529,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,7 +833,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -847,10 +853,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -859,21 +865,21 @@
         <v>255</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <v>256</v>
@@ -888,6 +894,52 @@
         <v>48</v>
       </c>
       <c r="G15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>512</v>
+      </c>
+      <c r="D16">
+        <v>766</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>512</v>
+      </c>
+      <c r="D17">
+        <v>766</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
         <v>11</v>
       </c>
     </row>

--- a/IP_calculation_Pro/equipment_database.xlsx
+++ b/IP_calculation_Pro/equipment_database.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\PycharmProjects\first_public_project\IP_calculation_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A6BC47-38E6-483B-9AE3-7BCA8A91E8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC37B68-3884-48B9-BDC2-0F394D2ACD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>equipment_name</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>23.5.11.255</t>
+  </si>
+  <si>
+    <t>10.5.11.1</t>
+  </si>
+  <si>
+    <t>10.5.11.255</t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +799,8 @@
         <v>5120</v>
       </c>
       <c r="D11">
-        <v>7659</v>
+        <f>C11+2558</f>
+        <v>7678</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -940,6 +947,31 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <f>D15+1</f>
+        <v>511</v>
+      </c>
+      <c r="D18">
+        <f>C18+254</f>
+        <v>765</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
         <v>11</v>
       </c>
     </row>

--- a/IP_calculation_Pro/equipment_database.xlsx
+++ b/IP_calculation_Pro/equipment_database.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\PycharmProjects\first_public_project\IP_calculation_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A6BC47-38E6-483B-9AE3-7BCA8A91E8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9D2888-9FA2-47FE-A501-7BB25014C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>equipment_name</t>
   </si>
@@ -28,48 +28,18 @@
     <t>equipment_type</t>
   </si>
   <si>
-    <t>first_serial_number</t>
-  </si>
-  <si>
-    <t>last_serial_number</t>
-  </si>
-  <si>
-    <t>first_IP</t>
-  </si>
-  <si>
-    <t>last_IP</t>
-  </si>
-  <si>
-    <t>ab_label</t>
-  </si>
-  <si>
     <t>Коммутатор</t>
   </si>
   <si>
     <t>ПРГС.465000.028</t>
   </si>
   <si>
-    <t>10.8.10.1</t>
-  </si>
-  <si>
-    <t>10.8.19.255</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Блок управления камерами</t>
   </si>
   <si>
     <t>ТТСК.465000.180</t>
   </si>
   <si>
-    <t>10.8.160.1</t>
-  </si>
-  <si>
-    <t>10.8.199.255</t>
-  </si>
-  <si>
     <t>ТТСК.465000.181</t>
   </si>
   <si>
@@ -82,72 +52,33 @@
     <t>ПРГС.465000.012</t>
   </si>
   <si>
-    <t>10.8.95.1</t>
-  </si>
-  <si>
-    <t>10.8.99.255</t>
-  </si>
-  <si>
     <t>Видеорегистратор</t>
   </si>
   <si>
     <t>ТТСК.465000.125</t>
   </si>
   <si>
-    <t>10.8.127.1</t>
-  </si>
-  <si>
-    <t>10.8.129.255</t>
-  </si>
-  <si>
     <t>Медиамонитор</t>
   </si>
   <si>
     <t>ПРГС.465000.024</t>
   </si>
   <si>
-    <t>10.7.10.1</t>
-  </si>
-  <si>
-    <t>10.7.10.255</t>
-  </si>
-  <si>
     <t>Домик для Мышки Норушки</t>
   </si>
   <si>
     <t>с трубой</t>
   </si>
   <si>
-    <t>10.6.20.1</t>
-  </si>
-  <si>
-    <t>10.6.39.255</t>
-  </si>
-  <si>
     <t>без трубы</t>
   </si>
   <si>
-    <t>10.5.20.1</t>
-  </si>
-  <si>
-    <t>10.5.29.255</t>
-  </si>
-  <si>
     <t>Дом Кота Леопольда</t>
   </si>
   <si>
     <t>с мышами</t>
   </si>
   <si>
-    <t>10.5.30.1</t>
-  </si>
-  <si>
-    <t>10.5.31.255</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
     <t>без мышей</t>
   </si>
   <si>
@@ -155,24 +86,6 @@
   </si>
   <si>
     <t>для зяблика</t>
-  </si>
-  <si>
-    <t>10.8.23.1</t>
-  </si>
-  <si>
-    <t>10.8.23.255</t>
-  </si>
-  <si>
-    <t>10.7.22.1</t>
-  </si>
-  <si>
-    <t>10.7.22.255</t>
-  </si>
-  <si>
-    <t>23.5.11.1</t>
-  </si>
-  <si>
-    <t>23.5.11.255</t>
   </si>
 </sst>
 </file>
@@ -535,415 +448,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2559</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>10239</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>10239</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>10239</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1279</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B13" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>767</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>255</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>5119</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>5119</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>5120</v>
-      </c>
-      <c r="D11">
-        <v>7659</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>511</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>511</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>255</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15">
-        <v>256</v>
-      </c>
-      <c r="D15">
-        <v>510</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16">
-        <v>512</v>
-      </c>
-      <c r="D16">
-        <v>766</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17">
-        <v>512</v>
-      </c>
-      <c r="D17">
-        <v>766</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IP_calculation_Pro/equipment_database.xlsx
+++ b/IP_calculation_Pro/equipment_database.xlsx
@@ -1,114 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\PycharmProjects\first_public_project\IP_calculation_Pro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9D2888-9FA2-47FE-A501-7BB25014C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>equipment_name</t>
-  </si>
-  <si>
-    <t>equipment_type</t>
-  </si>
-  <si>
-    <t>Коммутатор</t>
-  </si>
-  <si>
-    <t>ПРГС.465000.028</t>
-  </si>
-  <si>
-    <t>Блок управления камерами</t>
-  </si>
-  <si>
-    <t>ТТСК.465000.180</t>
-  </si>
-  <si>
-    <t>ТТСК.465000.181</t>
-  </si>
-  <si>
-    <t>ТТСК.465000.183</t>
-  </si>
-  <si>
-    <t>Монитор</t>
-  </si>
-  <si>
-    <t>ПРГС.465000.012</t>
-  </si>
-  <si>
-    <t>Видеорегистратор</t>
-  </si>
-  <si>
-    <t>ТТСК.465000.125</t>
-  </si>
-  <si>
-    <t>Медиамонитор</t>
-  </si>
-  <si>
-    <t>ПРГС.465000.024</t>
-  </si>
-  <si>
-    <t>Домик для Мышки Норушки</t>
-  </si>
-  <si>
-    <t>с трубой</t>
-  </si>
-  <si>
-    <t>без трубы</t>
-  </si>
-  <si>
-    <t>Дом Кота Леопольда</t>
-  </si>
-  <si>
-    <t>с мышами</t>
-  </si>
-  <si>
-    <t>без мышей</t>
-  </si>
-  <si>
-    <t>Кормушка</t>
-  </si>
-  <si>
-    <t>для зяблика</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,125 +420,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>equipment_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>equipment_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Коммутатор</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ПРГС.465000.028</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Блок управления камерами</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Блок управления камерами</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.181</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Блок управления камерами</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.183</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Монитор</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ПРГС.465000.012</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Видеорегистратор</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.125</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Медиамонитор</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ПРГС.465000.024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Домик для Мышки Норушки</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>с трубой</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Домик для Мышки Норушки</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>без трубы</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Дом Кота Леопольда</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>с мышами</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Дом Кота Леопольда</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>без мышей</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Кормушка</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>для зяблика</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Кормушка</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>для белочки</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Замок</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>на скале</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Принцесса</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>на горошине</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IP_calculation_Pro/equipment_database.xlsx
+++ b/IP_calculation_Pro/equipment_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>equipment_type</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equipment_version</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,11 @@
           <t>ПРГС.465000.028</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +478,7 @@
           <t>ТТСК.465000.180</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -477,7 +488,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ТТСК.465000.181</t>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-01</t>
         </is>
       </c>
     </row>
@@ -489,141 +505,282 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ТТСК.465000.183</t>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Монитор</t>
+          <t>Блок управления камерами</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ПРГС.465000.012</t>
+          <t>ТТСК.465000.181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Видеорегистратор</t>
+          <t>Блок управления камерами</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ТТСК.465000.125</t>
+          <t>ТТСК.465000.183</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Медиамонитор</t>
+          <t>Монитор</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ПРГС.465000.024</t>
+          <t>ПРГС.465000.012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Домик для Мышки Норушки</t>
+          <t>Видеорегистратор</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>с трубой</t>
+          <t>ТТСК.465000.125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Домик для Мышки Норушки</t>
+          <t>Медиамонитор</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>без трубы</t>
+          <t>ПРГС.465000.024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Дом Кота Леопольда</t>
+          <t>Домик для Мышки Норушки</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>с мышами</t>
+          <t>с трубой</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Дом Кота Леопольда</t>
+          <t>Домик для Мышки Норушки</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>без мышей</t>
+          <t>без трубы</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кормушка</t>
+          <t>Дом Кота Леопольда</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>для зяблика</t>
+          <t>с мышами</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Кормушка</t>
+          <t>Дом Кота Леопольда</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>для белочки</t>
+          <t>без мышей</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Замок</t>
+          <t>Кормушка</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>на скале</t>
+          <t>для зяблика</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Кормушка</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>для белочки</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Замок</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>на скале</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Принцесса</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>на горошине</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Дом Кота Леопольда</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>с бардаком</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Шапка</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>горит</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Шапка</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/IP_calculation_Pro/equipment_database.xlsx
+++ b/IP_calculation_Pro/equipment_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,18 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>test name</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>test type</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/IP_calculation_Pro/equipment_database.xlsx
+++ b/IP_calculation_Pro/equipment_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>equipment_type</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equipment_version</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,11 @@
           <t>ПРГС.465000.028</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +478,7 @@
           <t>ТТСК.465000.180</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -477,7 +488,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ТТСК.465000.181</t>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-01</t>
         </is>
       </c>
     </row>
@@ -489,151 +505,297 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ТТСК.465000.183</t>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Монитор</t>
+          <t>Блок управления камерами</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ПРГС.465000.012</t>
+          <t>ТТСК.465000.181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Видеорегистратор</t>
+          <t>Блок управления камерами</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ТТСК.465000.125</t>
+          <t>ТТСК.465000.183</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Медиамонитор</t>
+          <t>Монитор</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ПРГС.465000.024</t>
+          <t>ПРГС.465000.012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Домик для Мышки Норушки</t>
+          <t>Видеорегистратор</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>с трубой</t>
+          <t>ТТСК.465000.125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Домик для Мышки Норушки</t>
+          <t>Медиамонитор</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>без трубы</t>
+          <t>ПРГС.465000.024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Дом Кота Леопольда</t>
+          <t>Домик для Мышки Норушки</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>с мышами</t>
+          <t>с трубой</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Дом Кота Леопольда</t>
+          <t>Домик для Мышки Норушки</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>без мышей</t>
+          <t>без трубы</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кормушка</t>
+          <t>Дом Кота Леопольда</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>для зяблика</t>
+          <t>с мышами</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Кормушка</t>
+          <t>Дом Кота Леопольда</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>для белочки</t>
+          <t>без мышей</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Замок</t>
+          <t>Кормушка</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>на скале</t>
+          <t>для зяблика</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Принцесса</t>
+          <t>Кормушка</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>на горошине</t>
+          <t>для белочки</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>test name</t>
+          <t>Замок</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>test type</t>
+          <t>на скале</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Принцесса</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>на горошине</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Дом Кота Леопольда</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>с бардаком</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Шапка</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>горит</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Шапка</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Принцесса</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>невеста</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>нарядная</t>
         </is>
       </c>
     </row>
